--- a/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="149">
   <si>
     <t>ID</t>
   </si>
@@ -169,6 +169,9 @@
     <t>甲乙类序号5+例数</t>
   </si>
   <si>
+    <t>丙类类序号1+例数</t>
+  </si>
+  <si>
     <t>丙类序号2+例数</t>
   </si>
   <si>
@@ -235,7 +238,7 @@
     <t>专职卫生技术人员/保健老师</t>
   </si>
   <si>
-    <t>职卫生技术人员/保健老师</t>
+    <t>兼职卫生技术人员/保健老师</t>
   </si>
   <si>
     <t>专职心理老师</t>
@@ -250,6 +253,12 @@
     <t>兼职心理老师</t>
   </si>
   <si>
+    <t>{.id1}</t>
+  </si>
+  <si>
+    <t>{.schoolName}</t>
+  </si>
+  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -269,6 +278,189 @@
   </si>
   <si>
     <t>{.a111}</t>
+  </si>
+  <si>
+    <t>{.a121}</t>
+  </si>
+  <si>
+    <t>{.a122}</t>
+  </si>
+  <si>
+    <t>{.a123}</t>
+  </si>
+  <si>
+    <t>{.a131}</t>
+  </si>
+  <si>
+    <t>{.a132}</t>
+  </si>
+  <si>
+    <t>{.a133}</t>
+  </si>
+  <si>
+    <t>{.a1}</t>
+  </si>
+  <si>
+    <t>{.a21}</t>
+  </si>
+  <si>
+    <t>{.a22}</t>
+  </si>
+  <si>
+    <t>{.a23}</t>
+  </si>
+  <si>
+    <t>{.a211}</t>
+  </si>
+  <si>
+    <t>{.a221}</t>
+  </si>
+  <si>
+    <t>{.a222}</t>
+  </si>
+  <si>
+    <t>{.a223}</t>
+  </si>
+  <si>
+    <t>{.a231}</t>
+  </si>
+  <si>
+    <t>{.a232}</t>
+  </si>
+  <si>
+    <t>{.a233}</t>
+  </si>
+  <si>
+    <t>{.a411}</t>
+  </si>
+  <si>
+    <t>{.a4111a}</t>
+  </si>
+  <si>
+    <t>{.a4121a}</t>
+  </si>
+  <si>
+    <t>{.a4111b}</t>
+  </si>
+  <si>
+    <t>{.a4121b}</t>
+  </si>
+  <si>
+    <t>{.a4112}</t>
+  </si>
+  <si>
+    <t>{.a4123}</t>
+  </si>
+  <si>
+    <t>{.a421}</t>
+  </si>
+  <si>
+    <t>{.a422}</t>
+  </si>
+  <si>
+    <t>{.a423}</t>
+  </si>
+  <si>
+    <t>{.a424}</t>
+  </si>
+  <si>
+    <t>{.a425}</t>
+  </si>
+  <si>
+    <t>{.a431}</t>
+  </si>
+  <si>
+    <t>{.a432}</t>
+  </si>
+  <si>
+    <t>{.a433}</t>
+  </si>
+  <si>
+    <t>{.b1}</t>
+  </si>
+  <si>
+    <t>{.b101}</t>
+  </si>
+  <si>
+    <t>{.c1}</t>
+  </si>
+  <si>
+    <t>{.c101}</t>
+  </si>
+  <si>
+    <t>{.c2}</t>
+  </si>
+  <si>
+    <t>{.c201}</t>
+  </si>
+  <si>
+    <t>{.c01}</t>
+  </si>
+  <si>
+    <t>{.c21}</t>
+  </si>
+  <si>
+    <t>{.d11}</t>
+  </si>
+  <si>
+    <t>{.d12}</t>
+  </si>
+  <si>
+    <t>{.d13}</t>
+  </si>
+  <si>
+    <t>{.d14}</t>
+  </si>
+  <si>
+    <t>{.d15}</t>
+  </si>
+  <si>
+    <t>{.d16}</t>
+  </si>
+  <si>
+    <t>{.d17}</t>
+  </si>
+  <si>
+    <t>{.d18}</t>
+  </si>
+  <si>
+    <t>{.dj211}</t>
+  </si>
+  <si>
+    <t>{.dj221}</t>
+  </si>
+  <si>
+    <t>{.dj231}</t>
+  </si>
+  <si>
+    <t>{.dj241}</t>
+  </si>
+  <si>
+    <t>{.dj251}</t>
+  </si>
+  <si>
+    <t>{.dy211}</t>
+  </si>
+  <si>
+    <t>{.dy221}</t>
+  </si>
+  <si>
+    <t>{.dy231}</t>
+  </si>
+  <si>
+    <t>{.dy241}</t>
+  </si>
+  <si>
+    <t>{.dy251}</t>
+  </si>
+  <si>
+    <t>{.d31}</t>
+  </si>
+  <si>
+    <t>{.d32}</t>
+  </si>
+  <si>
+    <t>{.d33}</t>
   </si>
 </sst>
 </file>
@@ -277,12 +469,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -292,26 +484,26 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFF13037"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FFF13037"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,8 +517,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,14 +534,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,18 +555,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -386,8 +580,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +610,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -409,7 +618,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,38 +633,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,19 +655,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,37 +775,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,25 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -566,19 +811,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -590,67 +835,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,6 +936,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -765,206 +961,210 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1293,565 +1493,766 @@
   <sheetPr/>
   <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.2" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="14.6083333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.6" customWidth="1"/>
-    <col min="6" max="6" width="13.6" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.6" customWidth="1"/>
-    <col min="8" max="8" width="20.775" customWidth="1"/>
-    <col min="9" max="9" width="11.825" style="3" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="4" customWidth="1"/>
-    <col min="11" max="11" width="7.33333333333333" style="5" customWidth="1"/>
-    <col min="12" max="12" width="7.33333333333333" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="19.8" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.0916666666667" customWidth="1"/>
-    <col min="17" max="17" width="14.0083333333333" customWidth="1"/>
-    <col min="18" max="18" width="8.81666666666667" customWidth="1"/>
-    <col min="19" max="19" width="9.54166666666667" customWidth="1"/>
-    <col min="20" max="20" width="13.5166666666667" customWidth="1"/>
-    <col min="21" max="21" width="11.4666666666667" customWidth="1"/>
-    <col min="22" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="13.3333333333333" customWidth="1"/>
-    <col min="25" max="25" width="18.8666666666667" customWidth="1"/>
-    <col min="26" max="26" width="15.2" customWidth="1"/>
-    <col min="27" max="27" width="5.66666666666667" customWidth="1"/>
-    <col min="28" max="28" width="5.675" customWidth="1"/>
-    <col min="29" max="29" width="21.25" customWidth="1"/>
-    <col min="30" max="30" width="5.675" customWidth="1"/>
-    <col min="31" max="31" width="18.8333333333333" customWidth="1"/>
-    <col min="32" max="32" width="5.675" customWidth="1"/>
-    <col min="33" max="33" width="24.025" customWidth="1"/>
-    <col min="34" max="34" width="7.33333333333333" customWidth="1"/>
-    <col min="35" max="35" width="23.7916666666667" customWidth="1"/>
-    <col min="36" max="36" width="22.9333333333333" customWidth="1"/>
-    <col min="37" max="37" width="13.2833333333333" customWidth="1"/>
-    <col min="38" max="38" width="16.7833333333333" customWidth="1"/>
-    <col min="39" max="39" width="5.66666666666667" customWidth="1"/>
-    <col min="40" max="40" width="13.5166666666667" customWidth="1"/>
-    <col min="41" max="41" width="12.925" customWidth="1"/>
-    <col min="42" max="42" width="32.5" customWidth="1"/>
-    <col min="43" max="43" width="27.6666666666667" customWidth="1"/>
-    <col min="44" max="44" width="26.8333333333333" customWidth="1"/>
-    <col min="45" max="45" width="29" customWidth="1"/>
-    <col min="46" max="46" width="34.3333333333333" customWidth="1"/>
-    <col min="47" max="47" width="43.1666666666667" customWidth="1"/>
-    <col min="48" max="48" width="38.5" customWidth="1"/>
-    <col min="49" max="49" width="25.1666666666667" customWidth="1"/>
-    <col min="50" max="50" width="8" customWidth="1"/>
-    <col min="51" max="51" width="4.66666666666667" customWidth="1"/>
-    <col min="52" max="53" width="8" customWidth="1"/>
-    <col min="54" max="55" width="4.66666666666667" customWidth="1"/>
-    <col min="56" max="56" width="11.4666666666667" customWidth="1"/>
-    <col min="57" max="57" width="6.33333333333333" customWidth="1"/>
-    <col min="58" max="63" width="15.4666666666667" customWidth="1"/>
-    <col min="64" max="67" width="13.6" customWidth="1"/>
-    <col min="68" max="68" width="14" customWidth="1"/>
-    <col min="69" max="69" width="17.15" customWidth="1"/>
-    <col min="70" max="70" width="20.0416666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.6083333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.65" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.6" style="3" customWidth="1"/>
+    <col min="4" max="5" width="13.6" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.6" style="4" customWidth="1"/>
+    <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
+    <col min="9" max="9" width="15.2166666666667" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.5916666666667" style="7" customWidth="1"/>
+    <col min="12" max="12" width="11.2333333333333" style="8" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.1416666666667" style="7" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="7" customWidth="1"/>
+    <col min="16" max="16" width="15.0916666666667" style="2" customWidth="1"/>
+    <col min="17" max="17" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="18" max="18" width="8.81666666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="9.54166666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="21" max="21" width="13.1583333333333" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.675" style="2" customWidth="1"/>
+    <col min="23" max="23" width="12.4333333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="16.9083333333333" style="2" customWidth="1"/>
+    <col min="25" max="25" width="14.25" style="2" customWidth="1"/>
+    <col min="26" max="26" width="12.8" style="2" customWidth="1"/>
+    <col min="27" max="27" width="8.325" style="2" customWidth="1"/>
+    <col min="28" max="28" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="29" max="29" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="30" max="30" width="9.175" style="2" customWidth="1"/>
+    <col min="31" max="31" width="17.625" style="2" customWidth="1"/>
+    <col min="32" max="32" width="9.54166666666667" style="2" customWidth="1"/>
+    <col min="33" max="33" width="21.375" style="2" customWidth="1"/>
+    <col min="34" max="34" width="10.9916666666667" style="2" customWidth="1"/>
+    <col min="35" max="35" width="18.475" style="2" customWidth="1"/>
+    <col min="36" max="36" width="19.8" style="2" customWidth="1"/>
+    <col min="37" max="37" width="13.2833333333333" style="2" customWidth="1"/>
+    <col min="38" max="38" width="16.7833333333333" style="2" customWidth="1"/>
+    <col min="39" max="39" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="40" max="40" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="41" max="41" width="12.925" style="2" customWidth="1"/>
+    <col min="42" max="42" width="24.5083333333333" style="2" customWidth="1"/>
+    <col min="43" max="43" width="21.975" style="2" customWidth="1"/>
+    <col min="44" max="44" width="21.8583333333333" style="2" customWidth="1"/>
+    <col min="45" max="45" width="23.6666666666667" style="2" customWidth="1"/>
+    <col min="46" max="46" width="22.8166666666667" style="2" customWidth="1"/>
+    <col min="47" max="47" width="31.0333333333333" style="2" customWidth="1"/>
+    <col min="48" max="48" width="26.0833333333333" style="2" customWidth="1"/>
+    <col min="49" max="49" width="22.4583333333333" style="2" customWidth="1"/>
+    <col min="50" max="50" width="10.7416666666667" style="2" customWidth="1"/>
+    <col min="51" max="51" width="8.93333333333333" style="2" customWidth="1"/>
+    <col min="52" max="52" width="11.1" style="2" customWidth="1"/>
+    <col min="53" max="53" width="12.3166666666667" style="2" customWidth="1"/>
+    <col min="54" max="54" width="8.81666666666667" style="2" customWidth="1"/>
+    <col min="55" max="55" width="8.94166666666667" style="2" customWidth="1"/>
+    <col min="56" max="56" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="57" max="57" width="9.3" style="2" customWidth="1"/>
+    <col min="58" max="58" width="19.0833333333333" style="2" customWidth="1"/>
+    <col min="59" max="59" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="60" max="60" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="61" max="61" width="17.8666666666667" style="2" customWidth="1"/>
+    <col min="62" max="62" width="18" style="2" customWidth="1"/>
+    <col min="63" max="63" width="18.6" style="2" customWidth="1"/>
+    <col min="64" max="64" width="16.6583333333333" style="2" customWidth="1"/>
+    <col min="65" max="65" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="66" max="66" width="16.7833333333333" style="2" customWidth="1"/>
+    <col min="67" max="67" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="68" max="68" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="69" max="69" width="23.0583333333333" style="2" customWidth="1"/>
+    <col min="70" max="70" width="24.7583333333333" style="2" customWidth="1"/>
+    <col min="71" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:70">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:70">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="12" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
+      <c r="AD1" s="9"/>
+      <c r="AE1" s="9"/>
+      <c r="AF1" s="9"/>
+      <c r="AG1" s="9"/>
+      <c r="AH1" s="9"/>
+      <c r="AI1" s="9"/>
+      <c r="AJ1" s="9"/>
+      <c r="AK1" s="9"/>
+      <c r="AL1" s="9"/>
+      <c r="AM1" s="9"/>
+      <c r="AN1" s="9"/>
+      <c r="AO1" s="9"/>
+      <c r="AP1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="7" t="s">
+      <c r="AQ1" s="10"/>
+      <c r="AR1" s="10"/>
+      <c r="AS1" s="10"/>
+      <c r="AT1" s="10"/>
+      <c r="AU1" s="10"/>
+      <c r="AV1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7" t="s">
+      <c r="AW1" s="9"/>
+      <c r="AX1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
+      <c r="AY1" s="9"/>
+      <c r="AZ1" s="9"/>
+      <c r="BA1" s="9"/>
+      <c r="BB1" s="9"/>
+      <c r="BC1" s="9"/>
+      <c r="BD1" s="9"/>
+      <c r="BE1" s="9"/>
+      <c r="BF1" s="9"/>
+      <c r="BG1" s="9"/>
+      <c r="BH1" s="9"/>
+      <c r="BI1" s="9"/>
+      <c r="BJ1" s="9"/>
+      <c r="BK1" s="9"/>
+      <c r="BL1" s="9"/>
+      <c r="BM1" s="9"/>
+      <c r="BN1" s="9"/>
+      <c r="BO1" s="9"/>
+      <c r="BP1" s="9"/>
+      <c r="BQ1" s="9"/>
+      <c r="BR1" s="9"/>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:70">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+    <row r="2" ht="31" customHeight="1" spans="1:70">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7" t="s">
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7" t="s">
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="7"/>
-      <c r="AC2" s="7"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="7"/>
-      <c r="AF2" s="7"/>
-      <c r="AG2" s="7"/>
-      <c r="AH2" s="7"/>
-      <c r="AI2" s="7"/>
-      <c r="AJ2" s="7"/>
-      <c r="AK2" s="7"/>
-      <c r="AL2" s="7"/>
-      <c r="AM2" s="7"/>
-      <c r="AN2" s="7"/>
-      <c r="AO2" s="7"/>
-      <c r="AP2" s="12" t="s">
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+      <c r="AF2" s="9"/>
+      <c r="AG2" s="9"/>
+      <c r="AH2" s="9"/>
+      <c r="AI2" s="9"/>
+      <c r="AJ2" s="9"/>
+      <c r="AK2" s="9"/>
+      <c r="AL2" s="9"/>
+      <c r="AM2" s="9"/>
+      <c r="AN2" s="9"/>
+      <c r="AO2" s="9"/>
+      <c r="AP2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="8" t="s">
+      <c r="AQ2" s="10"/>
+      <c r="AR2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
+      <c r="AS2" s="10"/>
+      <c r="AT2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8" t="s">
+      <c r="AU2" s="10"/>
+      <c r="AV2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="8" t="s">
+      <c r="AW2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="7" t="s">
+      <c r="AX2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="7"/>
-      <c r="AZ2" s="7"/>
-      <c r="BA2" s="7"/>
-      <c r="BB2" s="7"/>
-      <c r="BC2" s="7"/>
-      <c r="BD2" s="7"/>
-      <c r="BE2" s="7"/>
-      <c r="BF2" s="11" t="s">
+      <c r="AY2" s="9"/>
+      <c r="AZ2" s="9"/>
+      <c r="BA2" s="9"/>
+      <c r="BB2" s="9"/>
+      <c r="BC2" s="9"/>
+      <c r="BD2" s="9"/>
+      <c r="BE2" s="9"/>
+      <c r="BF2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11" t="s">
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="9"/>
+      <c r="BI2" s="9"/>
+      <c r="BJ2" s="9"/>
+      <c r="BK2" s="9"/>
+      <c r="BL2" s="9"/>
+      <c r="BM2" s="9"/>
+      <c r="BN2" s="9"/>
+      <c r="BO2" s="9"/>
+      <c r="BP2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
+      <c r="BQ2" s="10"/>
+      <c r="BR2" s="10"/>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:70">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+    <row r="3" ht="32" customHeight="1" spans="1:70">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7" t="s">
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7" t="s">
+      <c r="Y3" s="9"/>
+      <c r="Z3" s="9"/>
+      <c r="AA3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
-      <c r="AE3" s="7"/>
-      <c r="AF3" s="7"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="11" t="s">
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
+      <c r="AE3" s="9"/>
+      <c r="AF3" s="9"/>
+      <c r="AG3" s="9"/>
+      <c r="AH3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="11"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="11"/>
-      <c r="AL3" s="11"/>
-      <c r="AM3" s="11" t="s">
+      <c r="AI3" s="9"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="9"/>
+      <c r="AL3" s="9"/>
+      <c r="AM3" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AN3" s="11"/>
-      <c r="AO3" s="11"/>
-      <c r="AP3" s="12" t="s">
+      <c r="AN3" s="9"/>
+      <c r="AO3" s="9"/>
+      <c r="AP3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="12" t="s">
+      <c r="AQ3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="12" t="s">
+      <c r="AR3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="12" t="s">
+      <c r="AS3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="12" t="s">
+      <c r="AT3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AU3" s="12" t="s">
+      <c r="AU3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="7" t="s">
+      <c r="AV3" s="10"/>
+      <c r="AW3" s="10"/>
+      <c r="AX3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="7" t="s">
+      <c r="AY3" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="7" t="s">
+      <c r="AZ3" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="BA3" s="7" t="s">
+      <c r="BA3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="BB3" s="7" t="s">
+      <c r="BB3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="BC3" s="7" t="s">
+      <c r="BC3" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="BD3" s="7" t="s">
+      <c r="BD3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="7" t="s">
+      <c r="BE3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="BF3" s="7" t="s">
+      <c r="BF3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="BG3" s="7" t="s">
+      <c r="BG3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="BH3" s="7" t="s">
+      <c r="BH3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="7" t="s">
+      <c r="BI3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="BJ3" s="7" t="s">
+      <c r="BJ3" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="BK3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="BL3" s="7" t="s">
+      <c r="BK3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="BM3" s="7" t="s">
+      <c r="BL3" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="BN3" s="7" t="s">
+      <c r="BM3" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="BO3" s="7" t="s">
+      <c r="BN3" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="BP3" s="7" t="s">
+      <c r="BO3" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="BQ3" s="7" t="s">
+      <c r="BP3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="BR3" s="7" t="s">
+      <c r="BQ3" s="10" t="s">
         <v>57</v>
       </c>
+      <c r="BR3" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" ht="28" customHeight="1" spans="1:70">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K4" s="9" t="s">
+    <row r="4" ht="51" customHeight="1" spans="1:70">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="K4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="L4" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="M4" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="N4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="O4" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="R4" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="V4" s="10" t="s">
+      <c r="S4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="T4" s="10"/>
+      <c r="U4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="W4" s="10" t="s">
+      <c r="V4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="X4" s="10" t="s">
+      <c r="W4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="Y4" s="10" t="s">
+      <c r="X4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="Z4" s="10" t="s">
+      <c r="Y4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AA4" s="9" t="s">
+      <c r="Z4" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AB4" s="8" t="s">
+      <c r="AA4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="AC4" s="8" t="s">
+      <c r="AB4" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AC4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="AE4" s="8" t="s">
+      <c r="AD4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="AF4" s="8" t="s">
+      <c r="AE4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AF4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AG4" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AH4" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AI4" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AJ4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AK4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AL4" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="AN4" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="AO4" s="9" t="s">
+      <c r="AM4" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="AP4" s="12"/>
-      <c r="AQ4" s="12"/>
-      <c r="AR4" s="12"/>
-      <c r="AS4" s="12"/>
-      <c r="AT4" s="12"/>
-      <c r="AU4" s="12"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="7"/>
-      <c r="AY4" s="7"/>
-      <c r="AZ4" s="7"/>
-      <c r="BA4" s="7"/>
-      <c r="BB4" s="7"/>
-      <c r="BC4" s="7"/>
-      <c r="BD4" s="7"/>
-      <c r="BE4" s="7"/>
-      <c r="BF4" s="7"/>
-      <c r="BG4" s="7"/>
-      <c r="BH4" s="7"/>
-      <c r="BI4" s="7"/>
-      <c r="BJ4" s="7"/>
-      <c r="BK4" s="7"/>
-      <c r="BL4" s="7"/>
-      <c r="BM4" s="7"/>
-      <c r="BN4" s="7"/>
-      <c r="BO4" s="7"/>
-      <c r="BP4" s="7"/>
-      <c r="BQ4" s="7"/>
-      <c r="BR4" s="7"/>
+      <c r="AN4" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="10"/>
+      <c r="AR4" s="10"/>
+      <c r="AS4" s="10"/>
+      <c r="AT4" s="10"/>
+      <c r="AU4" s="10"/>
+      <c r="AV4" s="10"/>
+      <c r="AW4" s="10"/>
+      <c r="AX4" s="10"/>
+      <c r="AY4" s="10"/>
+      <c r="AZ4" s="10"/>
+      <c r="BA4" s="10"/>
+      <c r="BB4" s="10"/>
+      <c r="BC4" s="10"/>
+      <c r="BD4" s="10"/>
+      <c r="BE4" s="10"/>
+      <c r="BF4" s="10"/>
+      <c r="BG4" s="10"/>
+      <c r="BH4" s="10"/>
+      <c r="BI4" s="10"/>
+      <c r="BJ4" s="10"/>
+      <c r="BK4" s="10"/>
+      <c r="BL4" s="10"/>
+      <c r="BM4" s="10"/>
+      <c r="BN4" s="10"/>
+      <c r="BO4" s="10"/>
+      <c r="BP4" s="10"/>
+      <c r="BQ4" s="10"/>
+      <c r="BR4" s="10"/>
     </row>
-    <row r="5" spans="3:9">
-      <c r="C5" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" s="1" customFormat="1" ht="18" spans="1:70">
+      <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E5" t="s">
+      <c r="B5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="C5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="H5" t="s">
+      <c r="E5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="F5" s="12" t="s">
         <v>84</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U5" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W5" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y5" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA5" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC5" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE5" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG5" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI5" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK5" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO5" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ5" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS5" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU5" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW5" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY5" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA5" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB5" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC5" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="BD5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE5" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="BF5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="BG5" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="BH5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="BI5" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK5" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="BL5" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BM5" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="BN5" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BO5" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP5" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ5" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR5" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
@@ -469,10 +469,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -496,7 +496,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,19 +517,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -540,8 +540,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -549,7 +565,29 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -564,53 +602,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,11 +617,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -640,7 +640,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,12 +655,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -673,67 +811,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,97 +823,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,15 +867,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -892,16 +883,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -917,6 +917,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -946,105 +961,90 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1053,114 +1053,96 @@
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1493,8 +1475,8 @@
   <sheetPr/>
   <dimension ref="A1:BR5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
@@ -1508,11 +1490,11 @@
     <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
     <col min="9" max="9" width="15.2166666666667" style="5" customWidth="1"/>
     <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.5916666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="11.2333333333333" style="8" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.1416666666667" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="7" customWidth="1"/>
+    <col min="11" max="11" width="11.5916666666667" style="5" customWidth="1"/>
+    <col min="12" max="12" width="11.2333333333333" style="7" customWidth="1"/>
+    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
+    <col min="14" max="14" width="17.1416666666667" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17.5083333333333" style="5" customWidth="1"/>
     <col min="16" max="16" width="15.0916666666667" style="2" customWidth="1"/>
     <col min="17" max="17" width="14.0083333333333" style="2" customWidth="1"/>
     <col min="18" max="18" width="8.81666666666667" style="2" customWidth="1"/>
@@ -1572,485 +1554,485 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:70">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
-      <c r="AF1" s="9"/>
-      <c r="AG1" s="9"/>
-      <c r="AH1" s="9"/>
-      <c r="AI1" s="9"/>
-      <c r="AJ1" s="9"/>
-      <c r="AK1" s="9"/>
-      <c r="AL1" s="9"/>
-      <c r="AM1" s="9"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="9"/>
-      <c r="AP1" s="10" t="s">
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
+      <c r="AL1" s="8"/>
+      <c r="AM1" s="8"/>
+      <c r="AN1" s="8"/>
+      <c r="AO1" s="8"/>
+      <c r="AP1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="10"/>
-      <c r="AR1" s="10"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="10"/>
-      <c r="AU1" s="10"/>
-      <c r="AV1" s="9" t="s">
+      <c r="AQ1" s="8"/>
+      <c r="AR1" s="8"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="8"/>
+      <c r="AU1" s="8"/>
+      <c r="AV1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" s="9"/>
-      <c r="AX1" s="9" t="s">
+      <c r="AW1" s="8"/>
+      <c r="AX1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="9"/>
-      <c r="AZ1" s="9"/>
-      <c r="BA1" s="9"/>
-      <c r="BB1" s="9"/>
-      <c r="BC1" s="9"/>
-      <c r="BD1" s="9"/>
-      <c r="BE1" s="9"/>
-      <c r="BF1" s="9"/>
-      <c r="BG1" s="9"/>
-      <c r="BH1" s="9"/>
-      <c r="BI1" s="9"/>
-      <c r="BJ1" s="9"/>
-      <c r="BK1" s="9"/>
-      <c r="BL1" s="9"/>
-      <c r="BM1" s="9"/>
-      <c r="BN1" s="9"/>
-      <c r="BO1" s="9"/>
-      <c r="BP1" s="9"/>
-      <c r="BQ1" s="9"/>
-      <c r="BR1" s="9"/>
+      <c r="AY1" s="8"/>
+      <c r="AZ1" s="8"/>
+      <c r="BA1" s="8"/>
+      <c r="BB1" s="8"/>
+      <c r="BC1" s="8"/>
+      <c r="BD1" s="8"/>
+      <c r="BE1" s="8"/>
+      <c r="BF1" s="8"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="8"/>
+      <c r="BI1" s="8"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="8"/>
+      <c r="BL1" s="8"/>
+      <c r="BM1" s="8"/>
+      <c r="BN1" s="8"/>
+      <c r="BO1" s="8"/>
+      <c r="BP1" s="8"/>
+      <c r="BQ1" s="8"/>
+      <c r="BR1" s="8"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:70">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="9" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9" t="s">
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
-      <c r="Y2" s="9"/>
-      <c r="Z2" s="9"/>
-      <c r="AA2" s="9" t="s">
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="9"/>
-      <c r="AC2" s="9"/>
-      <c r="AD2" s="9"/>
-      <c r="AE2" s="9"/>
-      <c r="AF2" s="9"/>
-      <c r="AG2" s="9"/>
-      <c r="AH2" s="9"/>
-      <c r="AI2" s="9"/>
-      <c r="AJ2" s="9"/>
-      <c r="AK2" s="9"/>
-      <c r="AL2" s="9"/>
-      <c r="AM2" s="9"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="9"/>
-      <c r="AP2" s="10" t="s">
+      <c r="AB2" s="8"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8"/>
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8"/>
+      <c r="AO2" s="8"/>
+      <c r="AP2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10" t="s">
+      <c r="AQ2" s="8"/>
+      <c r="AR2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="10" t="s">
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AU2" s="10"/>
-      <c r="AV2" s="10" t="s">
+      <c r="AU2" s="8"/>
+      <c r="AV2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="10" t="s">
+      <c r="AW2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="9" t="s">
+      <c r="AX2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="AY2" s="9"/>
-      <c r="AZ2" s="9"/>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="9"/>
-      <c r="BC2" s="9"/>
-      <c r="BD2" s="9"/>
-      <c r="BE2" s="9"/>
-      <c r="BF2" s="9" t="s">
+      <c r="AY2" s="8"/>
+      <c r="AZ2" s="8"/>
+      <c r="BA2" s="8"/>
+      <c r="BB2" s="8"/>
+      <c r="BC2" s="8"/>
+      <c r="BD2" s="8"/>
+      <c r="BE2" s="8"/>
+      <c r="BF2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="BG2" s="9"/>
-      <c r="BH2" s="9"/>
-      <c r="BI2" s="9"/>
-      <c r="BJ2" s="9"/>
-      <c r="BK2" s="9"/>
-      <c r="BL2" s="9"/>
-      <c r="BM2" s="9"/>
-      <c r="BN2" s="9"/>
-      <c r="BO2" s="9"/>
-      <c r="BP2" s="10" t="s">
+      <c r="BG2" s="8"/>
+      <c r="BH2" s="8"/>
+      <c r="BI2" s="8"/>
+      <c r="BJ2" s="8"/>
+      <c r="BK2" s="8"/>
+      <c r="BL2" s="8"/>
+      <c r="BM2" s="8"/>
+      <c r="BN2" s="8"/>
+      <c r="BO2" s="8"/>
+      <c r="BP2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="BQ2" s="10"/>
-      <c r="BR2" s="10"/>
+      <c r="BQ2" s="8"/>
+      <c r="BR2" s="8"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:70">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10" t="s">
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="R3" s="10"/>
-      <c r="S3" s="10"/>
-      <c r="T3" s="10" t="s">
+      <c r="R3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="V3" s="9"/>
-      <c r="W3" s="9"/>
-      <c r="X3" s="9" t="s">
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9" t="s">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9" t="s">
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="9" t="s">
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AK3" s="8"/>
+      <c r="AL3" s="8"/>
+      <c r="AM3" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="10" t="s">
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="8"/>
+      <c r="AP3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="10" t="s">
+      <c r="AQ3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="10" t="s">
+      <c r="AR3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="10" t="s">
+      <c r="AS3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="10" t="s">
+      <c r="AT3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AU3" s="10" t="s">
+      <c r="AU3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10" t="s">
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
+      <c r="AX3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="10" t="s">
+      <c r="AY3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="10" t="s">
+      <c r="AZ3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="BA3" s="10" t="s">
+      <c r="BA3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="BB3" s="10" t="s">
+      <c r="BB3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="BC3" s="10" t="s">
+      <c r="BC3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="BD3" s="10" t="s">
+      <c r="BD3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="10" t="s">
+      <c r="BE3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="BF3" s="10" t="s">
+      <c r="BF3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BG3" s="10" t="s">
+      <c r="BG3" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="BH3" s="10" t="s">
+      <c r="BH3" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="BI3" s="10" t="s">
+      <c r="BI3" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="BJ3" s="10" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="BK3" s="10" t="s">
+      <c r="BK3" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BL3" s="10" t="s">
+      <c r="BL3" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BM3" s="10" t="s">
+      <c r="BM3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BN3" s="10" t="s">
+      <c r="BN3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BO3" s="10" t="s">
+      <c r="BO3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BP3" s="10" t="s">
+      <c r="BP3" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BQ3" s="10" t="s">
+      <c r="BQ3" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BR3" s="10" t="s">
+      <c r="BR3" s="8" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" ht="51" customHeight="1" spans="1:70">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="13" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="K4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L4" s="13" t="s">
+      <c r="L4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="M4" s="13" t="s">
+      <c r="M4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="13" t="s">
+      <c r="N4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="13" t="s">
+      <c r="P4" s="8"/>
+      <c r="Q4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="R4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="S4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="10"/>
-      <c r="U4" s="17" t="s">
+      <c r="T4" s="8"/>
+      <c r="U4" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Y4" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AA4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AB4" s="10" t="s">
+      <c r="AB4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="AE4" s="10" t="s">
+      <c r="AE4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="AF4" s="10" t="s">
+      <c r="AF4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AG4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AH4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AI4" s="13" t="s">
+      <c r="AI4" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AJ4" s="13" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="AK4" s="13" t="s">
+      <c r="AK4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AL4" s="13" t="s">
+      <c r="AL4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="AM4" s="13" t="s">
+      <c r="AM4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AN4" s="13" t="s">
+      <c r="AN4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="AO4" s="13" t="s">
+      <c r="AO4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="AP4" s="10"/>
-      <c r="AQ4" s="10"/>
-      <c r="AR4" s="10"/>
-      <c r="AS4" s="10"/>
-      <c r="AT4" s="10"/>
-      <c r="AU4" s="10"/>
-      <c r="AV4" s="10"/>
-      <c r="AW4" s="10"/>
-      <c r="AX4" s="10"/>
-      <c r="AY4" s="10"/>
-      <c r="AZ4" s="10"/>
-      <c r="BA4" s="10"/>
-      <c r="BB4" s="10"/>
-      <c r="BC4" s="10"/>
-      <c r="BD4" s="10"/>
-      <c r="BE4" s="10"/>
-      <c r="BF4" s="10"/>
-      <c r="BG4" s="10"/>
-      <c r="BH4" s="10"/>
-      <c r="BI4" s="10"/>
-      <c r="BJ4" s="10"/>
-      <c r="BK4" s="10"/>
-      <c r="BL4" s="10"/>
-      <c r="BM4" s="10"/>
-      <c r="BN4" s="10"/>
-      <c r="BO4" s="10"/>
-      <c r="BP4" s="10"/>
-      <c r="BQ4" s="10"/>
-      <c r="BR4" s="10"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+      <c r="BQ4" s="8"/>
+      <c r="BR4" s="8"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" spans="1:70">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -2059,7 +2041,7 @@
       <c r="E5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="10" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2068,187 +2050,187 @@
       <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="K5" s="1" t="s">
         <v>89</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="1" t="s">
         <v>91</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="16" t="s">
+      <c r="O5" s="1" t="s">
         <v>93</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="Q5" s="16" t="s">
+      <c r="Q5" s="1" t="s">
         <v>95</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="S5" s="16" t="s">
+      <c r="S5" s="1" t="s">
         <v>97</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="U5" s="16" t="s">
+      <c r="U5" s="1" t="s">
         <v>99</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="W5" s="16" t="s">
+      <c r="W5" s="1" t="s">
         <v>101</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="Y5" s="16" t="s">
+      <c r="Y5" s="1" t="s">
         <v>103</v>
       </c>
       <c r="Z5" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="AA5" s="16" t="s">
+      <c r="AA5" s="1" t="s">
         <v>105</v>
       </c>
       <c r="AB5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="AC5" s="16" t="s">
+      <c r="AC5" s="1" t="s">
         <v>107</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="AE5" s="16" t="s">
+      <c r="AE5" s="1" t="s">
         <v>109</v>
       </c>
       <c r="AF5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AG5" s="16" t="s">
+      <c r="AG5" s="1" t="s">
         <v>111</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="AI5" s="16" t="s">
+      <c r="AI5" s="1" t="s">
         <v>113</v>
       </c>
       <c r="AJ5" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AK5" s="16" t="s">
+      <c r="AK5" s="1" t="s">
         <v>115</v>
       </c>
       <c r="AL5" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AM5" s="16" t="s">
+      <c r="AM5" s="1" t="s">
         <v>117</v>
       </c>
       <c r="AN5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AO5" s="16" t="s">
+      <c r="AO5" s="1" t="s">
         <v>119</v>
       </c>
       <c r="AP5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AQ5" s="16" t="s">
+      <c r="AQ5" s="1" t="s">
         <v>121</v>
       </c>
       <c r="AR5" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AS5" s="16" t="s">
+      <c r="AS5" s="1" t="s">
         <v>123</v>
       </c>
       <c r="AT5" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AU5" s="16" t="s">
+      <c r="AU5" s="1" t="s">
         <v>125</v>
       </c>
       <c r="AV5" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AW5" s="16" t="s">
+      <c r="AW5" s="1" t="s">
         <v>127</v>
       </c>
       <c r="AX5" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AY5" s="16" t="s">
+      <c r="AY5" s="1" t="s">
         <v>129</v>
       </c>
       <c r="AZ5" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BA5" s="16" t="s">
+      <c r="BA5" s="1" t="s">
         <v>131</v>
       </c>
       <c r="BB5" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="BC5" s="16" t="s">
+      <c r="BC5" s="1" t="s">
         <v>133</v>
       </c>
       <c r="BD5" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="BE5" s="16" t="s">
+      <c r="BE5" s="1" t="s">
         <v>135</v>
       </c>
       <c r="BF5" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="BG5" s="16" t="s">
+      <c r="BG5" s="1" t="s">
         <v>137</v>
       </c>
       <c r="BH5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BI5" s="16" t="s">
+      <c r="BI5" s="1" t="s">
         <v>139</v>
       </c>
       <c r="BJ5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BK5" s="16" t="s">
+      <c r="BK5" s="1" t="s">
         <v>141</v>
       </c>
       <c r="BL5" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BM5" s="16" t="s">
+      <c r="BM5" s="1" t="s">
         <v>143</v>
       </c>
       <c r="BN5" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BO5" s="16" t="s">
+      <c r="BO5" s="1" t="s">
         <v>145</v>
       </c>
       <c r="BP5" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BQ5" s="16" t="s">
+      <c r="BQ5" s="1" t="s">
         <v>147</v>
       </c>
       <c r="BR5" s="1" t="s">

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
@@ -14,14 +14,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>学校名称</t>
-  </si>
-  <si>
     <t>省（市/自治区）</t>
   </si>
   <si>
@@ -154,34 +151,37 @@
     <t>结膜炎</t>
   </si>
   <si>
-    <t>甲乙类序号1+例数</t>
-  </si>
-  <si>
-    <t>甲乙类序号2+例数</t>
-  </si>
-  <si>
-    <t>甲乙类序号3+例数</t>
-  </si>
-  <si>
-    <t>甲乙类序号4+例数</t>
-  </si>
-  <si>
-    <t>甲乙类序号5+例数</t>
-  </si>
-  <si>
-    <t>丙类类序号1+例数</t>
-  </si>
-  <si>
-    <t>丙类序号2+例数</t>
-  </si>
-  <si>
-    <t>丙类序号3+例数</t>
-  </si>
-  <si>
-    <t>丙类序号4+例数</t>
-  </si>
-  <si>
-    <t>丙类序号5+例数</t>
+    <t>甲乙类序号1</t>
+  </si>
+  <si>
+    <t>例数</t>
+  </si>
+  <si>
+    <t>甲乙类序号2</t>
+  </si>
+  <si>
+    <t>甲乙类序号3</t>
+  </si>
+  <si>
+    <t>甲乙类序号4</t>
+  </si>
+  <si>
+    <t>甲乙类序号5</t>
+  </si>
+  <si>
+    <t>丙类类序号1</t>
+  </si>
+  <si>
+    <t>丙类序号2</t>
+  </si>
+  <si>
+    <t>丙类序号3</t>
+  </si>
+  <si>
+    <t>丙类序号4</t>
+  </si>
+  <si>
+    <t>丙类序号5</t>
   </si>
   <si>
     <t>公共卫生事</t>
@@ -256,9 +256,6 @@
     <t>{.id1}</t>
   </si>
   <si>
-    <t>{.schoolName}</t>
-  </si>
-  <si>
     <t>{.province}</t>
   </si>
   <si>
@@ -427,31 +424,61 @@
     <t>{.dj211}</t>
   </si>
   <si>
+    <t>{.dj212}</t>
+  </si>
+  <si>
     <t>{.dj221}</t>
   </si>
   <si>
+    <t>{.dj222}</t>
+  </si>
+  <si>
     <t>{.dj231}</t>
   </si>
   <si>
+    <t>{.dj232}</t>
+  </si>
+  <si>
     <t>{.dj241}</t>
   </si>
   <si>
+    <t>{.dj242}</t>
+  </si>
+  <si>
     <t>{.dj251}</t>
   </si>
   <si>
+    <t>{.dj252}</t>
+  </si>
+  <si>
     <t>{.dy211}</t>
   </si>
   <si>
+    <t>{.dy212}</t>
+  </si>
+  <si>
     <t>{.dy221}</t>
   </si>
   <si>
+    <t>{.dy222}</t>
+  </si>
+  <si>
     <t>{.dy231}</t>
   </si>
   <si>
+    <t>{.dy232}</t>
+  </si>
+  <si>
     <t>{.dy241}</t>
   </si>
   <si>
+    <t>{.dy242}</t>
+  </si>
+  <si>
     <t>{.dy251}</t>
+  </si>
+  <si>
+    <t>{.dy252}</t>
   </si>
   <si>
     <t>{.d31}</t>
@@ -468,11 +495,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -496,6 +523,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -503,7 +544,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -517,77 +574,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -601,6 +590,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -609,18 +620,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -632,6 +643,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -639,8 +665,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,19 +682,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,73 +838,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,90 +856,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -864,35 +891,65 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -902,6 +959,41 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,16 +1014,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,10 +1045,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -966,152 +1056,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1127,12 +1217,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1147,6 +1231,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1473,575 +1572,630 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BR5"/>
+  <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+      <selection activeCell="BV10" sqref="BV10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="20.65" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.6" style="3" customWidth="1"/>
-    <col min="4" max="5" width="13.6" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.6" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.6" style="2" customWidth="1"/>
-    <col min="8" max="8" width="20.775" style="2" customWidth="1"/>
-    <col min="9" max="9" width="15.2166666666667" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.8916666666667" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.5916666666667" style="5" customWidth="1"/>
-    <col min="12" max="12" width="11.2333333333333" style="7" customWidth="1"/>
-    <col min="13" max="13" width="14.9666666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="17.1416666666667" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17.5083333333333" style="5" customWidth="1"/>
-    <col min="16" max="16" width="15.0916666666667" style="2" customWidth="1"/>
-    <col min="17" max="17" width="14.0083333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="8.81666666666667" style="2" customWidth="1"/>
-    <col min="19" max="19" width="9.54166666666667" style="2" customWidth="1"/>
-    <col min="20" max="20" width="13.5166666666667" style="2" customWidth="1"/>
-    <col min="21" max="21" width="13.1583333333333" style="2" customWidth="1"/>
-    <col min="22" max="22" width="12.675" style="2" customWidth="1"/>
-    <col min="23" max="23" width="12.4333333333333" style="2" customWidth="1"/>
-    <col min="24" max="24" width="16.9083333333333" style="2" customWidth="1"/>
-    <col min="25" max="25" width="14.25" style="2" customWidth="1"/>
-    <col min="26" max="26" width="12.8" style="2" customWidth="1"/>
-    <col min="27" max="27" width="8.325" style="2" customWidth="1"/>
-    <col min="28" max="28" width="9.41666666666667" style="2" customWidth="1"/>
-    <col min="29" max="29" width="17.3833333333333" style="2" customWidth="1"/>
-    <col min="30" max="30" width="9.175" style="2" customWidth="1"/>
-    <col min="31" max="31" width="17.625" style="2" customWidth="1"/>
-    <col min="32" max="32" width="9.54166666666667" style="2" customWidth="1"/>
-    <col min="33" max="33" width="21.375" style="2" customWidth="1"/>
-    <col min="34" max="34" width="10.9916666666667" style="2" customWidth="1"/>
-    <col min="35" max="35" width="18.475" style="2" customWidth="1"/>
-    <col min="36" max="36" width="19.8" style="2" customWidth="1"/>
-    <col min="37" max="37" width="13.2833333333333" style="2" customWidth="1"/>
-    <col min="38" max="38" width="16.7833333333333" style="2" customWidth="1"/>
-    <col min="39" max="39" width="9.41666666666667" style="2" customWidth="1"/>
-    <col min="40" max="40" width="13.5166666666667" style="2" customWidth="1"/>
-    <col min="41" max="41" width="12.925" style="2" customWidth="1"/>
-    <col min="42" max="42" width="24.5083333333333" style="2" customWidth="1"/>
-    <col min="43" max="43" width="21.975" style="2" customWidth="1"/>
-    <col min="44" max="44" width="21.8583333333333" style="2" customWidth="1"/>
-    <col min="45" max="45" width="23.6666666666667" style="2" customWidth="1"/>
-    <col min="46" max="46" width="22.8166666666667" style="2" customWidth="1"/>
-    <col min="47" max="47" width="31.0333333333333" style="2" customWidth="1"/>
-    <col min="48" max="48" width="26.0833333333333" style="2" customWidth="1"/>
-    <col min="49" max="49" width="22.4583333333333" style="2" customWidth="1"/>
-    <col min="50" max="50" width="10.7416666666667" style="2" customWidth="1"/>
-    <col min="51" max="51" width="8.93333333333333" style="2" customWidth="1"/>
-    <col min="52" max="52" width="11.1" style="2" customWidth="1"/>
-    <col min="53" max="53" width="12.3166666666667" style="2" customWidth="1"/>
-    <col min="54" max="54" width="8.81666666666667" style="2" customWidth="1"/>
-    <col min="55" max="55" width="8.94166666666667" style="2" customWidth="1"/>
-    <col min="56" max="56" width="11.4666666666667" style="2" customWidth="1"/>
-    <col min="57" max="57" width="9.3" style="2" customWidth="1"/>
-    <col min="58" max="58" width="19.0833333333333" style="2" customWidth="1"/>
-    <col min="59" max="59" width="18.8416666666667" style="2" customWidth="1"/>
-    <col min="60" max="60" width="18.7166666666667" style="2" customWidth="1"/>
-    <col min="61" max="61" width="17.8666666666667" style="2" customWidth="1"/>
-    <col min="62" max="62" width="18" style="2" customWidth="1"/>
-    <col min="63" max="63" width="18.6" style="2" customWidth="1"/>
-    <col min="64" max="64" width="16.6583333333333" style="2" customWidth="1"/>
-    <col min="65" max="65" width="18.2333333333333" style="2" customWidth="1"/>
-    <col min="66" max="66" width="16.7833333333333" style="2" customWidth="1"/>
-    <col min="67" max="67" width="16.6666666666667" style="2" customWidth="1"/>
-    <col min="68" max="68" width="18.8416666666667" style="2" customWidth="1"/>
-    <col min="69" max="69" width="23.0583333333333" style="2" customWidth="1"/>
-    <col min="70" max="70" width="24.7583333333333" style="2" customWidth="1"/>
-    <col min="71" max="16384" width="11" style="2"/>
+    <col min="2" max="2" width="13.6" style="3" customWidth="1"/>
+    <col min="3" max="4" width="13.6" style="2" customWidth="1"/>
+    <col min="5" max="5" width="13.6" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.6" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.775" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.2166666666667" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.5916666666667" style="2" customWidth="1"/>
+    <col min="11" max="11" width="11.2333333333333" style="5" customWidth="1"/>
+    <col min="12" max="12" width="14.9666666666667" style="2" customWidth="1"/>
+    <col min="13" max="13" width="17.1416666666667" style="2" customWidth="1"/>
+    <col min="14" max="14" width="17.5083333333333" style="2" customWidth="1"/>
+    <col min="15" max="15" width="15.0916666666667" style="2" customWidth="1"/>
+    <col min="16" max="16" width="14.0083333333333" style="2" customWidth="1"/>
+    <col min="17" max="17" width="8.81666666666667" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.54166666666667" style="2" customWidth="1"/>
+    <col min="19" max="19" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.1583333333333" style="2" customWidth="1"/>
+    <col min="21" max="21" width="12.675" style="2" customWidth="1"/>
+    <col min="22" max="22" width="12.4333333333333" style="2" customWidth="1"/>
+    <col min="23" max="23" width="16.9083333333333" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.25" style="2" customWidth="1"/>
+    <col min="25" max="25" width="12.8" style="2" customWidth="1"/>
+    <col min="26" max="26" width="8.325" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="28" max="28" width="17.3833333333333" style="2" customWidth="1"/>
+    <col min="29" max="29" width="9.175" style="2" customWidth="1"/>
+    <col min="30" max="30" width="17.625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="9.54166666666667" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.375" style="2" customWidth="1"/>
+    <col min="33" max="33" width="10.9916666666667" style="2" customWidth="1"/>
+    <col min="34" max="34" width="18.475" style="2" customWidth="1"/>
+    <col min="35" max="35" width="19.8" style="2" customWidth="1"/>
+    <col min="36" max="36" width="13.2833333333333" style="2" customWidth="1"/>
+    <col min="37" max="37" width="16.7833333333333" style="2" customWidth="1"/>
+    <col min="38" max="38" width="9.41666666666667" style="2" customWidth="1"/>
+    <col min="39" max="39" width="13.5166666666667" style="2" customWidth="1"/>
+    <col min="40" max="40" width="12.925" style="2" customWidth="1"/>
+    <col min="41" max="41" width="24.5083333333333" style="2" customWidth="1"/>
+    <col min="42" max="42" width="21.975" style="2" customWidth="1"/>
+    <col min="43" max="43" width="21.8583333333333" style="2" customWidth="1"/>
+    <col min="44" max="44" width="23.6666666666667" style="2" customWidth="1"/>
+    <col min="45" max="45" width="22.8166666666667" style="2" customWidth="1"/>
+    <col min="46" max="46" width="31.0333333333333" style="2" customWidth="1"/>
+    <col min="47" max="47" width="26.0833333333333" style="2" customWidth="1"/>
+    <col min="48" max="48" width="22.4583333333333" style="2" customWidth="1"/>
+    <col min="49" max="49" width="10.7416666666667" style="2" customWidth="1"/>
+    <col min="50" max="50" width="8.93333333333333" style="2" customWidth="1"/>
+    <col min="51" max="51" width="11.1" style="2" customWidth="1"/>
+    <col min="52" max="52" width="12.3166666666667" style="2" customWidth="1"/>
+    <col min="53" max="53" width="8.81666666666667" style="2" customWidth="1"/>
+    <col min="54" max="54" width="8.94166666666667" style="2" customWidth="1"/>
+    <col min="55" max="55" width="11.4666666666667" style="2" customWidth="1"/>
+    <col min="56" max="56" width="9.3" style="2" customWidth="1"/>
+    <col min="57" max="57" width="15.55" style="2" customWidth="1"/>
+    <col min="58" max="58" width="16.525" style="2" customWidth="1"/>
+    <col min="59" max="59" width="14.575" style="2" customWidth="1"/>
+    <col min="60" max="60" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="61" max="62" width="18.7166666666667" style="2" customWidth="1"/>
+    <col min="63" max="64" width="17.8666666666667" style="2" customWidth="1"/>
+    <col min="65" max="66" width="18" style="2" customWidth="1"/>
+    <col min="67" max="68" width="18.6" style="2" customWidth="1"/>
+    <col min="69" max="70" width="16.6583333333333" style="2" customWidth="1"/>
+    <col min="71" max="72" width="18.2333333333333" style="2" customWidth="1"/>
+    <col min="73" max="74" width="16.7833333333333" style="2" customWidth="1"/>
+    <col min="75" max="75" width="16.6666666666667" style="2" customWidth="1"/>
+    <col min="76" max="77" width="18.8416666666667" style="2" customWidth="1"/>
+    <col min="78" max="78" width="23.0583333333333" style="2" customWidth="1"/>
+    <col min="79" max="79" width="24.7583333333333" style="2" customWidth="1"/>
+    <col min="80" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:70">
-      <c r="A1" s="8" t="s">
+    <row r="1" ht="25" customHeight="1" spans="1:79">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
-      <c r="AL1" s="8"/>
-      <c r="AM1" s="8"/>
-      <c r="AN1" s="8"/>
-      <c r="AO1" s="8"/>
-      <c r="AP1" s="8" t="s">
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="AQ1" s="8"/>
-      <c r="AR1" s="8"/>
-      <c r="AS1" s="8"/>
-      <c r="AT1" s="8"/>
-      <c r="AU1" s="8"/>
-      <c r="AV1" s="8" t="s">
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AW1" s="8"/>
-      <c r="AX1" s="8" t="s">
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+    </row>
+    <row r="2" ht="31" customHeight="1" spans="1:79">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="AY1" s="8"/>
-      <c r="AZ1" s="8"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="8"/>
-      <c r="BC1" s="8"/>
-      <c r="BD1" s="8"/>
-      <c r="BE1" s="8"/>
-      <c r="BF1" s="8"/>
-      <c r="BG1" s="8"/>
-      <c r="BH1" s="8"/>
-      <c r="BI1" s="8"/>
-      <c r="BJ1" s="8"/>
-      <c r="BK1" s="8"/>
-      <c r="BL1" s="8"/>
-      <c r="BM1" s="8"/>
-      <c r="BN1" s="8"/>
-      <c r="BO1" s="8"/>
-      <c r="BP1" s="8"/>
-      <c r="BQ1" s="8"/>
-      <c r="BR1" s="8"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="BF2" s="11"/>
+      <c r="BG2" s="11"/>
+      <c r="BH2" s="11"/>
+      <c r="BI2" s="11"/>
+      <c r="BJ2" s="11"/>
+      <c r="BK2" s="11"/>
+      <c r="BL2" s="11"/>
+      <c r="BM2" s="11"/>
+      <c r="BN2" s="11"/>
+      <c r="BO2" s="11"/>
+      <c r="BP2" s="11"/>
+      <c r="BQ2" s="11"/>
+      <c r="BR2" s="11"/>
+      <c r="BS2" s="11"/>
+      <c r="BT2" s="11"/>
+      <c r="BU2" s="11"/>
+      <c r="BV2" s="11"/>
+      <c r="BW2" s="11"/>
+      <c r="BX2" s="14"/>
+      <c r="BY2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
     </row>
-    <row r="2" ht="31" customHeight="1" spans="1:70">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="8"/>
-      <c r="AA2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="8"/>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="8"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="8"/>
-      <c r="AN2" s="8"/>
-      <c r="AO2" s="8"/>
-      <c r="AP2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="AS2" s="8"/>
-      <c r="AT2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AU2" s="8"/>
-      <c r="AV2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="AW2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AY2" s="8"/>
-      <c r="AZ2" s="8"/>
-      <c r="BA2" s="8"/>
-      <c r="BB2" s="8"/>
-      <c r="BC2" s="8"/>
-      <c r="BD2" s="8"/>
-      <c r="BE2" s="8"/>
-      <c r="BF2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="BG2" s="8"/>
-      <c r="BH2" s="8"/>
-      <c r="BI2" s="8"/>
-      <c r="BJ2" s="8"/>
-      <c r="BK2" s="8"/>
-      <c r="BL2" s="8"/>
-      <c r="BM2" s="8"/>
-      <c r="BN2" s="8"/>
-      <c r="BO2" s="8"/>
-      <c r="BP2" s="8" t="s">
+    <row r="3" ht="32" customHeight="1" spans="1:79">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="BQ2" s="8"/>
-      <c r="BR2" s="8"/>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="BH3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI3" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="BL3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BM3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="BP3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="BR3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BS3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="BT3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="BV3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BW3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="BX3" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="3" ht="32" customHeight="1" spans="1:70">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="U3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8"/>
-      <c r="AA3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB3" s="8"/>
-      <c r="AC3" s="8"/>
-      <c r="AD3" s="8"/>
-      <c r="AE3" s="8"/>
-      <c r="AF3" s="8"/>
-      <c r="AG3" s="8"/>
-      <c r="AH3" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="8"/>
-      <c r="AJ3" s="8"/>
-      <c r="AK3" s="8"/>
-      <c r="AL3" s="8"/>
-      <c r="AM3" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AN3" s="8"/>
-      <c r="AO3" s="8"/>
-      <c r="AP3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ3" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AT3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="AV3" s="8"/>
-      <c r="AW3" s="8"/>
-      <c r="AX3" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AZ3" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="BB3" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="BC3" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="BD3" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="BE3" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="BF3" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="BG3" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="BH3" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ3" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="BK3" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="BL3" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="BM3" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="BN3" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="BO3" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="BP3" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="BQ3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="BR3" s="8" t="s">
-        <v>58</v>
-      </c>
+    <row r="4" ht="51" customHeight="1" spans="1:79">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="U4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="V4" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="X4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA4" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB4" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="AJ4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL4" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AN4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="13"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="13"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="13"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="13"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="13"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="13"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="13"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="13"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="13"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="13"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
     </row>
-    <row r="4" ht="51" customHeight="1" spans="1:70">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="O4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AB4" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC4" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="AE4" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI4" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ4" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="AO4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8"/>
-      <c r="BR4" s="8"/>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="18" spans="1:70">
+    <row r="5" s="1" customFormat="1" ht="18" spans="1:79">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="1" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="1" t="s">
@@ -2050,10 +2204,10 @@
       <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="9" t="s">
+      <c r="J5" s="1" t="s">
         <v>88</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -2236,31 +2390,58 @@
       <c r="BR5" s="1" t="s">
         <v>148</v>
       </c>
+      <c r="BS5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU5" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV5" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY5" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ5" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CA5" s="1" t="s">
+        <v>157</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="62">
-    <mergeCell ref="I1:AO1"/>
-    <mergeCell ref="AP1:AU1"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:BR1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:Z2"/>
-    <mergeCell ref="AA2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AT2:AU2"/>
-    <mergeCell ref="AX2:BE2"/>
-    <mergeCell ref="BF2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="X3:Z3"/>
-    <mergeCell ref="AA3:AG3"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AO3"/>
+  <mergeCells count="71">
+    <mergeCell ref="H1:AN1"/>
+    <mergeCell ref="AO1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:CA1"/>
+    <mergeCell ref="H2:N2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="S2:Y2"/>
+    <mergeCell ref="Z2:AN2"/>
+    <mergeCell ref="AO2:AP2"/>
+    <mergeCell ref="AQ2:AR2"/>
+    <mergeCell ref="AS2:AT2"/>
+    <mergeCell ref="AW2:BD2"/>
+    <mergeCell ref="BE2:BX2"/>
+    <mergeCell ref="BY2:CA2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AK3"/>
+    <mergeCell ref="AL3:AN3"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
@@ -2268,18 +2449,18 @@
     <mergeCell ref="E1:E4"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="AO3:AO4"/>
     <mergeCell ref="AP3:AP4"/>
     <mergeCell ref="AQ3:AQ4"/>
     <mergeCell ref="AR3:AR4"/>
     <mergeCell ref="AS3:AS4"/>
     <mergeCell ref="AT3:AT4"/>
-    <mergeCell ref="AU3:AU4"/>
+    <mergeCell ref="AU2:AU4"/>
     <mergeCell ref="AV2:AV4"/>
-    <mergeCell ref="AW2:AW4"/>
+    <mergeCell ref="AW3:AW4"/>
     <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AY3:AY4"/>
     <mergeCell ref="AZ3:AZ4"/>
@@ -2301,6 +2482,15 @@
     <mergeCell ref="BP3:BP4"/>
     <mergeCell ref="BQ3:BQ4"/>
     <mergeCell ref="BR3:BR4"/>
+    <mergeCell ref="BS3:BS4"/>
+    <mergeCell ref="BT3:BT4"/>
+    <mergeCell ref="BU3:BU4"/>
+    <mergeCell ref="BV3:BV4"/>
+    <mergeCell ref="BW3:BW4"/>
+    <mergeCell ref="BX3:BX4"/>
+    <mergeCell ref="BY3:BY4"/>
+    <mergeCell ref="BZ3:BZ4"/>
+    <mergeCell ref="CA3:CA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
+++ b/myopia-business/bootstrap/src/main/resources/excel/ExportAreaDistrictSchoolTemplate.xlsx
@@ -494,12 +494,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -523,20 +522,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -550,11 +535,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -568,15 +599,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +607,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -592,13 +622,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -612,47 +635,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -665,9 +650,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -682,19 +681,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,43 +837,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,115 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,26 +953,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -993,37 +972,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1045,9 +994,59 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,195 +1055,183 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1574,22 +1561,19 @@
   <sheetPr/>
   <dimension ref="A1:CA5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
-      <selection activeCell="BV10" sqref="BV10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="14.6083333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.6" style="3" customWidth="1"/>
-    <col min="3" max="4" width="13.6" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.6" style="4" customWidth="1"/>
-    <col min="6" max="6" width="13.6" style="2" customWidth="1"/>
+    <col min="2" max="6" width="13.6" style="2" customWidth="1"/>
     <col min="7" max="7" width="20.775" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.2166666666667" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.8916666666667" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.8916666666667" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5916666666667" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.2333333333333" style="5" customWidth="1"/>
+    <col min="11" max="11" width="11.2333333333333" style="3" customWidth="1"/>
     <col min="12" max="12" width="14.9666666666667" style="2" customWidth="1"/>
     <col min="13" max="13" width="17.1416666666667" style="2" customWidth="1"/>
     <col min="14" max="14" width="17.5083333333333" style="2" customWidth="1"/>
@@ -1654,536 +1638,536 @@
   </cols>
   <sheetData>
     <row r="1" ht="25" customHeight="1" spans="1:79">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6" t="s">
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6" t="s">
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="4"/>
+      <c r="BD1" s="4"/>
+      <c r="BE1" s="4"/>
+      <c r="BF1" s="4"/>
+      <c r="BG1" s="4"/>
+      <c r="BH1" s="4"/>
+      <c r="BI1" s="4"/>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="BR1" s="4"/>
+      <c r="BS1" s="4"/>
+      <c r="BT1" s="4"/>
+      <c r="BU1" s="4"/>
+      <c r="BV1" s="4"/>
+      <c r="BW1" s="4"/>
+      <c r="BX1" s="4"/>
+      <c r="BY1" s="4"/>
+      <c r="BZ1" s="4"/>
+      <c r="CA1" s="4"/>
     </row>
     <row r="2" ht="31" customHeight="1" spans="1:79">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6" t="s">
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6" t="s">
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6" t="s">
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6" t="s">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+      <c r="AE2" s="4"/>
+      <c r="AF2" s="4"/>
+      <c r="AG2" s="4"/>
+      <c r="AH2" s="4"/>
+      <c r="AI2" s="4"/>
+      <c r="AJ2" s="4"/>
+      <c r="AK2" s="4"/>
+      <c r="AL2" s="4"/>
+      <c r="AM2" s="4"/>
+      <c r="AN2" s="4"/>
+      <c r="AO2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6" t="s">
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6" t="s">
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6" t="s">
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="10" t="s">
+      <c r="AX2" s="4"/>
+      <c r="AY2" s="4"/>
+      <c r="AZ2" s="4"/>
+      <c r="BA2" s="4"/>
+      <c r="BB2" s="4"/>
+      <c r="BC2" s="4"/>
+      <c r="BD2" s="4"/>
+      <c r="BE2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="BF2" s="11"/>
-      <c r="BG2" s="11"/>
-      <c r="BH2" s="11"/>
-      <c r="BI2" s="11"/>
-      <c r="BJ2" s="11"/>
-      <c r="BK2" s="11"/>
-      <c r="BL2" s="11"/>
-      <c r="BM2" s="11"/>
-      <c r="BN2" s="11"/>
-      <c r="BO2" s="11"/>
-      <c r="BP2" s="11"/>
-      <c r="BQ2" s="11"/>
-      <c r="BR2" s="11"/>
-      <c r="BS2" s="11"/>
-      <c r="BT2" s="11"/>
-      <c r="BU2" s="11"/>
-      <c r="BV2" s="11"/>
-      <c r="BW2" s="11"/>
-      <c r="BX2" s="14"/>
-      <c r="BY2" s="6" t="s">
+      <c r="BF2" s="7"/>
+      <c r="BG2" s="7"/>
+      <c r="BH2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="BR2" s="7"/>
+      <c r="BS2" s="7"/>
+      <c r="BT2" s="7"/>
+      <c r="BU2" s="7"/>
+      <c r="BV2" s="7"/>
+      <c r="BW2" s="7"/>
+      <c r="BX2" s="10"/>
+      <c r="BY2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
+      <c r="BZ2" s="4"/>
+      <c r="CA2" s="4"/>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:79">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6" t="s">
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6" t="s">
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6" t="s">
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6" t="s">
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6" t="s">
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6" t="s">
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AX3" s="6" t="s">
+      <c r="AX3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AY3" s="6" t="s">
+      <c r="AY3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AZ3" s="6" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="BA3" s="6" t="s">
+      <c r="BA3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="BB3" s="6" t="s">
+      <c r="BB3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="BC3" s="6" t="s">
+      <c r="BC3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="BD3" s="6" t="s">
+      <c r="BD3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BE3" s="6" t="s">
+      <c r="BE3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="BF3" s="12" t="s">
+      <c r="BF3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BG3" s="6" t="s">
+      <c r="BG3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="BH3" s="12" t="s">
+      <c r="BH3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BI3" s="6" t="s">
+      <c r="BI3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="BJ3" s="12" t="s">
+      <c r="BJ3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BK3" s="6" t="s">
+      <c r="BK3" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="BL3" s="12" t="s">
+      <c r="BL3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BM3" s="6" t="s">
+      <c r="BM3" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="BN3" s="12" t="s">
+      <c r="BN3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BO3" s="6" t="s">
+      <c r="BO3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="BP3" s="12" t="s">
+      <c r="BP3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BQ3" s="6" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="BR3" s="12" t="s">
+      <c r="BR3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BS3" s="6" t="s">
+      <c r="BS3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BT3" s="12" t="s">
+      <c r="BT3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BU3" s="6" t="s">
+      <c r="BU3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BV3" s="12" t="s">
+      <c r="BV3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BW3" s="6" t="s">
+      <c r="BW3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BX3" s="12" t="s">
+      <c r="BX3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="BY3" s="6" t="s">
+      <c r="BY3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BZ3" s="6" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="CA3" s="6" t="s">
+      <c r="CA3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="4" ht="51" customHeight="1" spans="1:79">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="9" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="9" t="s">
+      <c r="J4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="9" t="s">
+      <c r="O4" s="4"/>
+      <c r="P4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="6"/>
-      <c r="T4" s="9" t="s">
+      <c r="S4" s="4"/>
+      <c r="T4" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="V4" s="9" t="s">
+      <c r="V4" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="W4" s="9" t="s">
+      <c r="W4" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="X4" s="9" t="s">
+      <c r="X4" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="Y4" s="9" t="s">
+      <c r="Y4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="Z4" s="9" t="s">
+      <c r="Z4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="AD4" s="6" t="s">
+      <c r="AD4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="AE4" s="6" t="s">
+      <c r="AE4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="AF4" s="6" t="s">
+      <c r="AF4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="AG4" s="9" t="s">
+      <c r="AG4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" s="9" t="s">
+      <c r="AH4" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AI4" s="9" t="s">
+      <c r="AI4" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AJ4" s="9" t="s">
+      <c r="AJ4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AK4" s="9" t="s">
+      <c r="AK4" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AL4" s="9" t="s">
+      <c r="AL4" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AM4" s="9" t="s">
+      <c r="AM4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AN4" s="9" t="s">
+      <c r="AN4" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="13"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="13"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="13"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="13"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="13"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="13"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="13"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="13"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="13"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="13"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="AX4" s="4"/>
+      <c r="AY4" s="4"/>
+      <c r="AZ4" s="4"/>
+      <c r="BA4" s="4"/>
+      <c r="BB4" s="4"/>
+      <c r="BC4" s="4"/>
+      <c r="BD4" s="4"/>
+      <c r="BE4" s="4"/>
+      <c r="BF4" s="9"/>
+      <c r="BG4" s="4"/>
+      <c r="BH4" s="9"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="9"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="9"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="9"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="9"/>
+      <c r="BQ4" s="4"/>
+      <c r="BR4" s="9"/>
+      <c r="BS4" s="4"/>
+      <c r="BT4" s="9"/>
+      <c r="BU4" s="4"/>
+      <c r="BV4" s="9"/>
+      <c r="BW4" s="4"/>
+      <c r="BX4" s="9"/>
+      <c r="BY4" s="4"/>
+      <c r="BZ4" s="4"/>
+      <c r="CA4" s="4"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="18" spans="1:79">
       <c r="A5" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2192,7 +2176,7 @@
       <c r="D5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -2204,7 +2188,7 @@
       <c r="H5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
